--- a/code/import/wamsi_theme5/missing_depths.xlsx
+++ b/code/import/wamsi_theme5/missing_depths.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00065525\Github\csiem-data\code\import\wamsi_theme5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C203E14C-D67F-4F3D-8FDA-71B6F74C23F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DEA92BD-CA96-4B4A-8943-A86F157F560B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21900" windowHeight="15600" xr2:uid="{0C290E25-D259-47E8-81EE-5DCFDC20F6BC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0C290E25-D259-47E8-81EE-5DCFDC20F6BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="78">
   <si>
     <t>D:\csiem\data-lake\wamsi\wwmsp5\DO/20210623_CS1_miniDOT_564352_EPSG7844.nc</t>
   </si>
@@ -151,9 +150,6 @@
   </si>
   <si>
     <t>UWA_CS3_SBE_3353.nc</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <t>20210610_CS3_RDI600_11265_EPSG7844.nc</t>
@@ -280,13 +276,27 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -303,7 +313,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -311,13 +321,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,384 +665,391 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="79.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="79.140625" customWidth="1"/>
-    <col min="3" max="3" width="42.42578125" customWidth="1"/>
-    <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="32" style="2" customWidth="1"/>
+    <col min="5" max="5" width="36.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E9" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E10" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
